--- a/GameList.xlsx
+++ b/GameList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="熱門" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="老虎機" sheetId="1" r:id="rId3"/>
     <sheet name="其他" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -27,46 +27,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>gameName</t>
   </si>
   <si>
-    <t>魔獸世界</t>
-  </si>
-  <si>
-    <t>狂野海盜</t>
-  </si>
-  <si>
-    <t>異星進化UPUP</t>
-  </si>
-  <si>
-    <t>神鬼戰士</t>
-  </si>
-  <si>
-    <t>忍 Kunoichi</t>
-  </si>
-  <si>
-    <t>祕寶探險</t>
-  </si>
-  <si>
-    <t>麻將大贏家</t>
-  </si>
-  <si>
-    <t>一路連發</t>
-  </si>
-  <si>
-    <t>翻倍金字塔</t>
-  </si>
-  <si>
-    <t>推幣冠軍</t>
+    <t>神燈金靈</t>
+  </si>
+  <si>
+    <t>財富連連</t>
+  </si>
+  <si>
+    <t>大過年</t>
+  </si>
+  <si>
+    <t>碰碰胡</t>
+  </si>
+  <si>
+    <t>瘋狂野牛</t>
+  </si>
+  <si>
+    <t>西部風雲</t>
+  </si>
+  <si>
+    <t>金錢豹</t>
+  </si>
+  <si>
+    <t>逛夜市</t>
+  </si>
+  <si>
+    <t>錦鯉躍錢</t>
+  </si>
+  <si>
+    <t>龜兔賽車</t>
+  </si>
+  <si>
+    <t>尋寶奇航</t>
+  </si>
+  <si>
+    <t>豪華金錢豹</t>
+  </si>
+  <si>
+    <t>淘金樂</t>
+  </si>
+  <si>
+    <t>富貴大亨</t>
+  </si>
+  <si>
+    <t>巨海覓寶</t>
+  </si>
+  <si>
+    <t>羅賓漢</t>
+  </si>
+  <si>
+    <t>大過年2</t>
+  </si>
+  <si>
+    <t>古墓秘寶</t>
+  </si>
+  <si>
+    <t>蜜糖爆擊</t>
+  </si>
+  <si>
+    <t>合成與魔法</t>
+  </si>
+  <si>
+    <t>宙斯</t>
+  </si>
+  <si>
+    <t>喵財進寶</t>
+  </si>
+  <si>
+    <t>財富金蛋</t>
+  </si>
+  <si>
+    <t>元素狂潮</t>
+  </si>
+  <si>
+    <t>逛夜市2</t>
+  </si>
+  <si>
+    <t>錢樹推幣機</t>
+  </si>
+  <si>
+    <t>馬戲團推幣機</t>
+  </si>
+  <si>
+    <t>發財推幣機</t>
+  </si>
+  <si>
+    <t>一觸即發</t>
+  </si>
+  <si>
+    <t>多彩骰寶</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="微軟正黑體"/>
@@ -94,8 +154,20 @@
       <name val="Hei"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="MingLiu"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="NotoSansSC"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,8 +180,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -147,15 +225,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -171,17 +276,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -310,35 +424,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A4" s="2" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -347,75 +493,309 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:A77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A27" sqref="A27:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" thickBot="1">
+    <row r="4" spans="1:1" ht="14.25" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" thickBot="1">
+    <row r="8" spans="1:1" ht="14.25" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" thickBot="1">
+      <c r="A22" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A27" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A28" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A29" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A30" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A31" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A51" s="10"/>
+    </row>
+    <row r="52" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A56" s="6"/>
+    </row>
+    <row r="57" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="58" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A58" s="6"/>
+    </row>
+    <row r="59" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A59" s="6"/>
+    </row>
+    <row r="60" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A60" s="6"/>
+    </row>
+    <row r="61" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A61" s="6"/>
+    </row>
+    <row r="62" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A62" s="6"/>
+    </row>
+    <row r="63" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A63" s="6"/>
+    </row>
+    <row r="64" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A64" s="6"/>
+    </row>
+    <row r="65" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="69" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A69" s="6"/>
+    </row>
+    <row r="70" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A70" s="6"/>
+    </row>
+    <row r="71" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A72" s="6"/>
+    </row>
+    <row r="73" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A73" s="6"/>
+    </row>
+    <row r="74" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A74" s="6"/>
+    </row>
+    <row r="75" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A75" s="6"/>
+    </row>
+    <row r="76" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A76" s="6"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -425,7 +805,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A76"/>
+  <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -433,248 +813,316 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1">
+    <row r="8" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" thickBot="1">
+      <c r="A22" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="14.25" thickBot="1">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1">
+    <row r="28" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A31" s="11"/>
+    </row>
+    <row r="32" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" ht="14.25" thickBot="1">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" ht="14.25" thickBot="1">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" ht="14.25" thickBot="1">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1">
+    <row r="42" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" ht="14.25" thickBot="1">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1">
+    <row r="46" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A51" s="10"/>
+    </row>
+    <row r="52" spans="1:1" ht="14.25" thickBot="1">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" ht="14.25" thickBot="1">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" ht="14.25" thickBot="1">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" ht="14.25" thickBot="1">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" ht="14.25" thickBot="1">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" ht="14.25" thickBot="1">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" ht="14.25" thickBot="1">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" ht="14.25" thickBot="1">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" ht="14.25" thickBot="1">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" ht="14.25" thickBot="1">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" ht="14.25" thickBot="1">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" ht="14.25" thickBot="1">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" ht="14.25" thickBot="1">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" ht="14.25" thickBot="1">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" ht="14.25" thickBot="1">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" ht="14.25" thickBot="1">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" ht="14.25" thickBot="1">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" ht="14.25" thickBot="1">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" ht="14.25" thickBot="1">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" ht="14.25" thickBot="1">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" ht="14.25" thickBot="1">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" ht="14.25" thickBot="1">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" ht="14.25" thickBot="1">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" ht="14.25" thickBot="1">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" ht="14.25" thickBot="1">
       <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A85" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -689,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -701,29 +1149,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A2" s="8" t="s">
-        <v>7</v>
+      <c r="A2" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25" thickBot="1">
       <c r="A3" s="9" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
+      <c r="A4" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A6" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" ht="15" thickBot="1">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A27" s="11"/>
+    </row>
+    <row r="28" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A29" s="11"/>
+    </row>
+    <row r="30" spans="1:1" ht="15" thickBot="1">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A51" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/GameList.xlsx
+++ b/GameList.xlsx
@@ -27,99 +27,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
   <si>
     <t>gameName</t>
   </si>
   <si>
-    <t>神燈金靈</t>
-  </si>
-  <si>
-    <t>財富連連</t>
-  </si>
-  <si>
-    <t>大過年</t>
-  </si>
-  <si>
-    <t>碰碰胡</t>
-  </si>
-  <si>
-    <t>瘋狂野牛</t>
-  </si>
-  <si>
-    <t>西部風雲</t>
-  </si>
-  <si>
     <t>金錢豹</t>
   </si>
   <si>
-    <t>逛夜市</t>
-  </si>
-  <si>
-    <t>錦鯉躍錢</t>
-  </si>
-  <si>
-    <t>龜兔賽車</t>
-  </si>
-  <si>
-    <t>尋寶奇航</t>
-  </si>
-  <si>
-    <t>豪華金錢豹</t>
-  </si>
-  <si>
-    <t>淘金樂</t>
-  </si>
-  <si>
-    <t>富貴大亨</t>
-  </si>
-  <si>
-    <t>巨海覓寶</t>
-  </si>
-  <si>
-    <t>羅賓漢</t>
-  </si>
-  <si>
-    <t>大過年2</t>
-  </si>
-  <si>
-    <t>古墓秘寶</t>
-  </si>
-  <si>
-    <t>蜜糖爆擊</t>
-  </si>
-  <si>
-    <t>合成與魔法</t>
-  </si>
-  <si>
-    <t>宙斯</t>
-  </si>
-  <si>
-    <t>喵財進寶</t>
-  </si>
-  <si>
-    <t>財富金蛋</t>
-  </si>
-  <si>
-    <t>元素狂潮</t>
-  </si>
-  <si>
-    <t>逛夜市2</t>
-  </si>
-  <si>
-    <t>錢樹推幣機</t>
-  </si>
-  <si>
-    <t>馬戲團推幣機</t>
-  </si>
-  <si>
-    <t>發財推幣機</t>
-  </si>
-  <si>
-    <t>一觸即發</t>
-  </si>
-  <si>
-    <t>多彩骰寶</t>
+    <t>龍舞</t>
+  </si>
+  <si>
+    <t>瘋狂金魚</t>
+  </si>
+  <si>
+    <t>泰好玩</t>
+  </si>
+  <si>
+    <t>變臉</t>
+  </si>
+  <si>
+    <t>喜洋羊</t>
+  </si>
+  <si>
+    <t>幸運熊貓</t>
+  </si>
+  <si>
+    <t>芝麻開門2</t>
+  </si>
+  <si>
+    <t>馬上有錢</t>
+  </si>
+  <si>
+    <t>金剛</t>
+  </si>
+  <si>
+    <t>變臉2</t>
+  </si>
+  <si>
+    <t>芝麻開門</t>
+  </si>
+  <si>
+    <t>浪花2</t>
+  </si>
+  <si>
+    <t>超級牛B</t>
+  </si>
+  <si>
+    <t>大三元</t>
+  </si>
+  <si>
+    <t>飛鳥派對</t>
+  </si>
+  <si>
+    <t>暴發虎</t>
+  </si>
+  <si>
+    <t>拳王</t>
+  </si>
+  <si>
+    <t>聚寶盆</t>
+  </si>
+  <si>
+    <t>幸運龍</t>
+  </si>
+  <si>
+    <t>雷神之錘</t>
+  </si>
+  <si>
+    <t>月光秘寶</t>
+  </si>
+  <si>
+    <t>飛龍在天</t>
+  </si>
+  <si>
+    <t>鯉躍龍門</t>
+  </si>
+  <si>
+    <t>超級牛B 豪華版</t>
+  </si>
+  <si>
+    <t>骰寶無雙</t>
+  </si>
+  <si>
+    <t>天降財神</t>
+  </si>
+  <si>
+    <t>花開富貴</t>
+  </si>
+  <si>
+    <t>芝麻開門 Mega</t>
+  </si>
+  <si>
+    <t>幸運招財貓</t>
+  </si>
+  <si>
+    <t>富豪哥2</t>
+  </si>
+  <si>
+    <t>王牌</t>
+  </si>
+  <si>
+    <t>元素連結 火</t>
+  </si>
+  <si>
+    <t>王牌特工</t>
+  </si>
+  <si>
+    <t>過新年</t>
+  </si>
+  <si>
+    <t>台灣黑熊</t>
+  </si>
+  <si>
+    <t>星際水果霸</t>
+  </si>
+  <si>
+    <t>唐伯虎點秋香2</t>
+  </si>
+  <si>
+    <t>啤酒大亨</t>
+  </si>
+  <si>
+    <t>小瑪莉</t>
+  </si>
+  <si>
+    <t>新年快樂</t>
+  </si>
+  <si>
+    <t>飛禽走獸</t>
+  </si>
+  <si>
+    <t>花果山傳奇</t>
+  </si>
+  <si>
+    <t>超激發水果盤</t>
+  </si>
+  <si>
+    <t>瘋狂金剛</t>
+  </si>
+  <si>
+    <t>發財足球王</t>
+  </si>
+  <si>
+    <t>財神賓果彩</t>
+  </si>
+  <si>
+    <t>金雞福彩</t>
+  </si>
+  <si>
+    <t>快樂六星彩</t>
   </si>
 </sst>
 </file>
@@ -259,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -296,6 +353,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +487,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -436,52 +496,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:1" ht="14.25" customHeight="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="15" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -495,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -511,77 +589,77 @@
     </row>
     <row r="2" spans="1:1" ht="14.25" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.25" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.25" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.25" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="14.25" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="14.25" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="14.25" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="14.25" thickBot="1">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="14.25" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="14.25" thickBot="1">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.25" thickBot="1">
@@ -600,7 +678,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -635,89 +713,127 @@
       </c>
     </row>
     <row r="27" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A40" s="1"/>
+      <c r="A40" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="41" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A41" s="1"/>
+      <c r="A41" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="42" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A42" s="3"/>
+      <c r="A42" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A43" s="3"/>
+      <c r="A43" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="44" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A44" s="3"/>
+      <c r="A44" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A45" s="1"/>
+      <c r="A45" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="46" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A46" s="3"/>
+      <c r="A46" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A47" s="3"/>
+      <c r="A47" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A48" s="3"/>
+      <c r="A48" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="49" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A49" s="3"/>
+      <c r="A49" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A50" s="3"/>
+      <c r="A50" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="51" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A51" s="10"/>
+      <c r="A51" s="3"/>
     </row>
     <row r="52" spans="1:1" ht="14.25" thickBot="1">
       <c r="A52" s="1"/>
@@ -808,8 +924,8 @@
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -824,77 +940,77 @@
     </row>
     <row r="2" spans="1:1" ht="14.25" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.25" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.25" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.25" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="14.25" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="14.25" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="14.25" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="14.25" thickBot="1">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="14.25" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="14.25" thickBot="1">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.25" thickBot="1">
@@ -913,7 +1029,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -948,43 +1064,69 @@
       </c>
     </row>
     <row r="27" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A27" s="1"/>
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A31" s="11"/>
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:1" ht="14.25" thickBot="1">
       <c r="A40" s="1"/>
@@ -1140,7 +1282,7 @@
   <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1155,46 +1297,58 @@
     </row>
     <row r="2" spans="1:1" ht="14.25" thickBot="1">
       <c r="A2" s="9" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25" thickBot="1">
       <c r="A3" s="9" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" thickBot="1">
       <c r="A4" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" thickBot="1">
       <c r="A5" s="9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25" thickBot="1">
       <c r="A6" s="9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A8" s="2"/>
+      <c r="A8" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A9" s="3"/>
+      <c r="A9" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A11" s="1"/>
+      <c r="A11" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:1" ht="14.25" thickBot="1">
       <c r="A13" s="3"/>
